--- a/VidaCamara.Web/Temp/Reportes/9junio272016.xlsx
+++ b/VidaCamara.Web/Temp/Reportes/9junio272016.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="237">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -445,25 +445,301 @@
     <t xml:space="preserve">2,476,257.3300</t>
   </si>
   <si>
-    <t xml:space="preserve">Saldo Final al 30/09/2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95,536,548.3296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14,873,345.7548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">683,734.2300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15,557,079.9848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20,234,699.5248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100,214,167.8696</t>
+    <t xml:space="preserve">31/10/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,831,366.4921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">829,370.2146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">853,009.6981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">484,603.5050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">542.8550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47,601.1450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,641,592.0286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21,432.6750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">531.9900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">544,029.5314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33,903.5850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18,577.4700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,082,713.5115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-580,508.4300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">580,508.4300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/11/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15,878,519.9900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-14,873,345.7600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-683,734.2300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15,557,079.9900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">321,440.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,703,651.2909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,075,672.3175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,045,839.5301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">676,566.8850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">841.4300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41,521.5250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,119,467.5906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25,655.2700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">560,876.5649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38,539.2050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158.8250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">809,490.2221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,048,029.3200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31/12/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,720,215.7506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,148,148.8850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">949,514.1956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">572,877.8500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,714.6300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41,049.8600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">708,840.4146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18,472.8150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">623,905.5092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30,946.1900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34,576.3700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">781,191.0226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,367,347.0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saldo Final al 31/12/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111,913,261.8732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15,865,839.2912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,834,867.9000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21,700,707.1912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42,837,355.1512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133,049,909.8332</t>
   </si>
 </sst>
 </file>
@@ -3409,45 +3685,2840 @@
       <c r="B52" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="C52" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="L52" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="N52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T52" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="O52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P52" s="2" t="s">
+      <c r="U52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V52" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="Q52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S52" s="2" t="s">
+      <c r="F53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N53" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="T52" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="U52" s="2" t="s">
+      <c r="O53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U53" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="V53" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="V52" s="2" t="s">
+      <c r="F54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N54" s="2" t="s">
         <v>144</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U54" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="V54" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S55" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U55" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="V55" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S56" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U56" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="V56" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S57" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U57" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="V57" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S58" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U58" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="V58" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S59" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U59" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="V59" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S60" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U60" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="V60" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S61" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U61" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="V61" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S62" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U62" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="V62" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S63" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="T63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U63" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="V63" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S64" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="T64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U64" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="V64" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P65" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S65" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="T65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V65" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S66" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="T66" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="U66" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="V66" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T67" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="U67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V67" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S68" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="T68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U68" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="V68" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S69" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="T69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U69" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="V69" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S70" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="T70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U70" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="V70" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S71" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="T71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U71" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="V71" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S72" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="T72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U72" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="V72" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R73" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S73" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="T73" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U73" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="V73" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S74" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="T74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U74" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="V74" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R75" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S75" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="T75" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U75" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="V75" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S76" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="T76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U76" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="V76" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R77" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S77" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="T77" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U77" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="V77" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S78" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U78" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="V78" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S79" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="T79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U79" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="V79" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="V80" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T81" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="U81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V81" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P82" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q82" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R82" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S82" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="T82" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U82" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="V82" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N83" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P83" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q83" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R83" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S83" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="T83" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U83" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="V83" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P84" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q84" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R84" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S84" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="T84" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U84" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="V84" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P85" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q85" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R85" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S85" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="T85" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U85" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="V85" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P86" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q86" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R86" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S86" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="T86" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U86" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="V86" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P87" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q87" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R87" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S87" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="T87" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U87" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="V87" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P88" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q88" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R88" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S88" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="T88" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U88" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V88" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="O89" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P89" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q89" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R89" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S89" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="T89" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U89" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="V89" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="O90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S90" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="T90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U90" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="V90" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="O91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S91" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="T91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U91" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="V91" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N92" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P92" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q92" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R92" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S92" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="T92" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U92" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="V92" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N93" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S93" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="T93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U93" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="V93" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P94" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S94" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="T94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U94" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="V94" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N95" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="O95" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P95" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q95" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R95" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S95" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="T95" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="U95" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="V95" s="2" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B52:K52"/>
+    <mergeCell ref="B95:K95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
